--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1530293.83311621</v>
+        <v>-1532244.05894477</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>84.18784319039975</v>
+        <v>235.3776452228071</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>169.1099575965962</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>184.551572972076</v>
+        <v>89.83938363460571</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>58.03776529495459</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>27.08614661308878</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>25.08467608327369</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>64.99586874835499</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>49.68959372147508</v>
+        <v>356.0499371768001</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>136.1916198885552</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>65.05884990877803</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1385,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>210.031331074254</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>108.9023612584536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784682</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>63.84216607141741</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>204.7246660641642</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>271.364450487009</v>
+        <v>210.9685212521338</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>79.71208056177241</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>122.6494500489691</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>109.2304308074167</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>203.8435192151922</v>
       </c>
     </row>
     <row r="26">
@@ -2719,7 +2719,7 @@
         <v>80.48358288857172</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692774</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F28" t="n">
         <v>77.28915789329061</v>
@@ -2779,7 +2779,7 @@
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224533</v>
       </c>
     </row>
     <row r="29">
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415164</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3007,7 +3007,7 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941868</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W31" t="n">
         <v>218.3911082069504</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3199,7 +3199,7 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789549</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1277.195327601982</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="C2" t="n">
-        <v>908.2328106615707</v>
+        <v>1214.415758416387</v>
       </c>
       <c r="D2" t="n">
-        <v>549.9671120548203</v>
+        <v>856.150059809637</v>
       </c>
       <c r="E2" t="n">
-        <v>549.9671120548203</v>
+        <v>856.150059809637</v>
       </c>
       <c r="F2" t="n">
-        <v>138.9812072652127</v>
+        <v>445.1641550200295</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>2053.934499641916</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W2" t="n">
-        <v>2053.934499641916</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X2" t="n">
-        <v>2053.934499641916</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="Y2" t="n">
-        <v>1663.795167666104</v>
+        <v>1583.378275356799</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,28 +4410,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T4" t="n">
-        <v>512.2963347852319</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="U4" t="n">
-        <v>512.2963347852319</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="V4" t="n">
-        <v>512.2963347852319</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="W4" t="n">
-        <v>222.8791647482714</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="X4" t="n">
-        <v>222.8791647482714</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>393.6767897220517</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>990.5839652830418</v>
+        <v>512.2786438284568</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830418</v>
+        <v>512.2786438284568</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762914</v>
+        <v>512.2786438284568</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>126.4903912302125</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4571,46 +4571,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2451.15467993666</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V5" t="n">
-        <v>2120.091792593089</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1767.323137322975</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>1767.323137322975</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y5" t="n">
-        <v>1377.183805347164</v>
+        <v>898.8784838925785</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>398.3338608103785</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="C7" t="n">
-        <v>229.3976778824716</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D7" t="n">
-        <v>79.28103847013585</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406182</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X7" t="n">
-        <v>579.9823256406182</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="Y7" t="n">
-        <v>579.9823256406182</v>
+        <v>373.0594214943678</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1364.743608328862</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="C8" t="n">
-        <v>995.7810913884502</v>
+        <v>1568.629239003654</v>
       </c>
       <c r="D8" t="n">
-        <v>995.7810913884502</v>
+        <v>1210.363540396903</v>
       </c>
       <c r="E8" t="n">
-        <v>995.7810913884502</v>
+        <v>824.575287798659</v>
       </c>
       <c r="F8" t="n">
-        <v>584.7951865988427</v>
+        <v>413.5893830090515</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1717.512263598976</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1364.743608328862</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X8" t="n">
-        <v>1364.743608328862</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y8" t="n">
-        <v>1364.743608328862</v>
+        <v>1937.591755944065</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.3364050629041</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C10" t="n">
-        <v>338.4002221349972</v>
+        <v>269.7756312415669</v>
       </c>
       <c r="D10" t="n">
-        <v>338.4002221349972</v>
+        <v>119.6589918292312</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>119.6589918292312</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253976</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>266.1532743881928</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,13 +5200,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>1286.763410886939</v>
       </c>
       <c r="V13" t="n">
-        <v>1075.21084526296</v>
+        <v>1032.078922681052</v>
       </c>
       <c r="W13" t="n">
-        <v>785.7936752259989</v>
+        <v>1032.078922681052</v>
       </c>
       <c r="X13" t="n">
-        <v>557.8041243279815</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="Y13" t="n">
-        <v>447.8017392184324</v>
+        <v>804.0893717830343</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,25 +5276,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5318,7 +5318,7 @@
         <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>549.598437470156</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>891.440640161986</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441948</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>738.72199690426</v>
+        <v>713.5778697504956</v>
       </c>
       <c r="C16" t="n">
-        <v>674.2349604684848</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D16" t="n">
-        <v>674.2349604684848</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1292.123678573898</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>1002.995039787456</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.78763177146</v>
+        <v>1002.995039787456</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3704617344997</v>
+        <v>713.5778697504956</v>
       </c>
       <c r="X16" t="n">
-        <v>920.3704617344997</v>
+        <v>713.5778697504956</v>
       </c>
       <c r="Y16" t="n">
-        <v>920.3704617344997</v>
+        <v>713.5778697504956</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,40 +5498,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5540,7 +5540,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>498.9056400965603</v>
       </c>
       <c r="L18" t="n">
-        <v>563.7235867775518</v>
+        <v>745.6707680030242</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1514.038914395486</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>714.6010158349783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>545.6648329070714</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1224.810765015469</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V19" t="n">
-        <v>1224.810765015469</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W19" t="n">
-        <v>935.3935949785084</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X19" t="n">
-        <v>935.3935949785084</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>714.6010158349783</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,40 +5735,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>644.700260475621</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C22" t="n">
-        <v>475.7640775477141</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D22" t="n">
-        <v>325.6474381353784</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>177.7343445529852</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>177.7343445529852</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1375.027937175105</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1151.242521964611</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347408</v>
+        <v>1151.242521964611</v>
       </c>
       <c r="V22" t="n">
-        <v>1275.130855347408</v>
+        <v>1151.242521964611</v>
       </c>
       <c r="W22" t="n">
-        <v>1275.130855347408</v>
+        <v>861.8253519276506</v>
       </c>
       <c r="X22" t="n">
-        <v>1047.141304449391</v>
+        <v>633.8358010296332</v>
       </c>
       <c r="Y22" t="n">
-        <v>826.3487253058607</v>
+        <v>413.0432218861031</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1632.773754790662</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1912.313820009359</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>416.5712828402495</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1188.662491981114</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1188.662491981114</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V25" t="n">
-        <v>933.9780037752275</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="W25" t="n">
-        <v>644.5608337382669</v>
+        <v>531.1091870201135</v>
       </c>
       <c r="X25" t="n">
-        <v>416.5712828402495</v>
+        <v>303.1196361220962</v>
       </c>
       <c r="Y25" t="n">
-        <v>416.5712828402495</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,7 +6242,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6303,22 +6303,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E28" t="n">
         <v>398.9545963083206</v>
@@ -6427,7 +6427,7 @@
         <v>924.26110100452</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6455,16 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6646,13 +6646,13 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T31" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V31" t="n">
         <v>1304.027639859417</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6701,16 +6701,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6725,25 +6725,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6777,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6929,19 +6929,19 @@
         <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -7023,7 +7023,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103128</v>
@@ -7093,37 +7093,37 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525394</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254951</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860495</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116387</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384655</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025262</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,19 +7172,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,7 +7363,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859416</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M42" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7524,7 +7524,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108323</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229663</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7585,19 +7585,19 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384655</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025262</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F45" t="n">
         <v>358.2718071316295</v>
@@ -7722,16 +7722,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643586</v>
@@ -7761,7 +7761,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,10 +8772,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>127.6461250100662</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711656</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814756</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928334</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>87.16935584025495</v>
       </c>
       <c r="L18" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9723,22 +9723,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>213.260391180663</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928343</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>176.7176547498451</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928343</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>329.5963268303952</v>
+        <v>178.4065247979879</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>21.53734161150725</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22708,13 +22708,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22756,10 +22756,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>40.4835324860083</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819388</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>76.20602132432339</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>109.6822920936412</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>103.4046550272104</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>16.82289499422504</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,16 +23938,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>14.87290191156836</v>
+        <v>75.26883114644357</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>86.78148790160517</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>75.27135993463413</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>112.3171302509725</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>14.74113413690259</v>
       </c>
     </row>
     <row r="26">
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
     </row>
     <row r="29">
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>5.044853423896711e-13</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96832.57803770929</v>
+        <v>96832.57803770932</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26320,13 +26320,13 @@
         <v>102630.2212330354</v>
       </c>
       <c r="E2" t="n">
+        <v>97757.26493442722</v>
+      </c>
+      <c r="F2" t="n">
         <v>97757.26493442721</v>
       </c>
-      <c r="F2" t="n">
-        <v>97757.26493442722</v>
-      </c>
       <c r="G2" t="n">
-        <v>97757.26493442722</v>
+        <v>97757.26493442721</v>
       </c>
       <c r="H2" t="n">
         <v>97757.26493442721</v>
@@ -26338,22 +26338,22 @@
         <v>102630.2212330355</v>
       </c>
       <c r="K2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="L2" t="n">
         <v>102630.2212330355</v>
       </c>
       <c r="M2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="N2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="O2" t="n">
         <v>102630.2212330356</v>
       </c>
       <c r="P2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330356</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.51210371251</v>
+        <v>54505.51210371256</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26427,13 +26427,13 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
+        <v>15045.6696214391</v>
+      </c>
+      <c r="G4" t="n">
         <v>15045.66962143914</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>15045.6696214391</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15045.66962143911</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
@@ -26445,16 +26445,16 @@
         <v>37464.45686275957</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.4568627596</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275956</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275959</v>
@@ -26470,13 +26470,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26488,7 +26488,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>97715.10582002538</v>
@@ -26506,10 +26506,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-706296.5066771948</v>
+        <v>-706412.4595411014</v>
       </c>
       <c r="C6" t="n">
         <v>-137003.8150815967</v>
@@ -26528,40 +26528,40 @@
         <v>-137003.8150815967</v>
       </c>
       <c r="E6" t="n">
-        <v>-534435.7671126246</v>
+        <v>-534533.2262385966</v>
       </c>
       <c r="F6" t="n">
-        <v>-9275.730635728542</v>
+        <v>-9373.189761700676</v>
       </c>
       <c r="G6" t="n">
-        <v>-9275.730635728498</v>
+        <v>-9373.18976170072</v>
       </c>
       <c r="H6" t="n">
-        <v>-9275.730635728498</v>
+        <v>-9373.189761700633</v>
       </c>
       <c r="I6" t="n">
-        <v>-9275.730635728512</v>
+        <v>-9373.189761700691</v>
       </c>
       <c r="J6" t="n">
         <v>-263478.0727460549</v>
       </c>
       <c r="K6" t="n">
-        <v>-32549.34144974939</v>
+        <v>-32549.34144974942</v>
       </c>
       <c r="L6" t="n">
-        <v>-32549.34144974944</v>
+        <v>-32549.34144974942</v>
       </c>
       <c r="M6" t="n">
         <v>-167350.3566835866</v>
       </c>
       <c r="N6" t="n">
-        <v>-32549.34144974941</v>
+        <v>-32549.34144974947</v>
       </c>
       <c r="O6" t="n">
-        <v>-87054.8535534619</v>
+        <v>-87054.85355346202</v>
       </c>
       <c r="P6" t="n">
-        <v>-32549.3414497495</v>
+        <v>-32549.34144974945</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="N2" t="n">
-        <v>68.13189012964064</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,28 +26735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26768,16 +26768,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>158.6423008735387</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>348.1937590669618</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>135.1957218234786</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>348.8382804467569</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>224.1380208952005</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>121.3492865632955</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>160.7137866406821</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0945762993199</v>
+        <v>57.7342328439949</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,13 +28014,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>10.24234275801402</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>80.36219811415322</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,10 +31929,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32233,40 +32233,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,10 +32306,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32318,7 +32318,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32327,10 +32327,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32406,7 +32406,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,10 +32418,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34299,10 +34299,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34366,40 +34366,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,10 +34439,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215733</v>
@@ -34451,7 +34451,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
@@ -34460,10 +34460,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
@@ -34475,7 +34475,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34539,7 +34539,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34551,10 +34551,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U46" t="n">
         <v>0.08167695791351813</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>438.0705020605324</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206019</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109071</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341718</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504661</v>
@@ -35741,7 +35741,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>237.7447944281941</v>
       </c>
       <c r="L18" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36048,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>420.3538061121876</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36689,7 +36689,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
@@ -37163,7 +37163,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414415</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221134</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M42" t="n">
-        <v>487.1420318003114</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37944,7 +37944,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N43" t="n">
         <v>341.4087679352443</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221134</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N46" t="n">
         <v>341.4087679352443</v>
